--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6829767138364</v>
+        <v>16.27395536621195</v>
       </c>
       <c r="D2" t="n">
         <v>0.00301823225217215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008574046394687406</v>
+        <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>13.21528945902947</v>
+        <v>9.178312775821793</v>
       </c>
       <c r="G2" t="n">
-        <v>12.8763661742037</v>
+        <v>8.766803171361049</v>
       </c>
       <c r="H2" t="n">
-        <v>13.55969403570495</v>
+        <v>9.594480817265291</v>
       </c>
       <c r="I2" t="n">
-        <v>1.047893842861156</v>
+        <v>0.01538991438918501</v>
       </c>
       <c r="J2" t="n">
-        <v>1.034450510531334</v>
+        <v>0.01424563830712567</v>
       </c>
       <c r="K2" t="n">
-        <v>1.062250297727032</v>
+        <v>0.01672905441475471</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07460492792803586</v>
+        <v>0.005717097912475402</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06823426916354415</v>
+        <v>0.005396440862554793</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08144362953340048</v>
+        <v>0.006077740589567102</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3589057188001392</v>
+        <v>0.3589057182506037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3038166774373344</v>
+        <v>0.3038166771491592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3557873749964925</v>
+        <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2423067097364156</v>
+        <v>0.277040445070052</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2404931899984955</v>
+        <v>0.2761937718556184</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2455138024135932</v>
+        <v>0.2779249621772381</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2167474143284519</v>
+        <v>0.2491529967964021</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2163001635512606</v>
+        <v>0.2483557484447161</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2174225319354438</v>
+        <v>0.2499856937723305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2386919650192968</v>
+        <v>0.2744480533082039</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2384506104817232</v>
+        <v>0.2736050499399066</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2389726656387851</v>
+        <v>0.2753294172235052</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16.63286108446255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3068349094013313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3620629507605393</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.455353220891844</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.042996943216668</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.872405779442531</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2645429111855871</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2626013867518417</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2667147481870852</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2801651512206793</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2790014908024613</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2814071578130723</v>
       </c>
     </row>
   </sheetData>

--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>9.176089913271017</v>
+        <v>9.176796562746436</v>
       </c>
       <c r="G2" t="n">
-        <v>8.77210426012676</v>
+        <v>8.770687053077054</v>
       </c>
       <c r="H2" t="n">
-        <v>9.589859860554707</v>
+        <v>9.59065024361772</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0153943880558841</v>
+        <v>0.01538674993817868</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01422238102128113</v>
+        <v>0.01423415435279722</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01671540601595646</v>
+        <v>0.01672820652655296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005717634564164921</v>
+        <v>0.005716224836998841</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005392186785847347</v>
+        <v>0.00539223706952717</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006071556336305903</v>
+        <v>0.006073695210345828</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2770411387548266</v>
+        <v>0.2770399540957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2762076629792899</v>
+        <v>0.2761748315653162</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2778905757269974</v>
+        <v>0.2779120955063997</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2491536306751396</v>
+        <v>0.2491524015390205</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2483690819537099</v>
+        <v>0.2483369206522182</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2499535194931795</v>
+        <v>0.2499723739362292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2744487383110276</v>
+        <v>0.2744475595711038</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2736188753294282</v>
+        <v>0.2735861791358388</v>
       </c>
       <c r="N3" t="n">
-        <v>0.275295229748624</v>
+        <v>0.2753165872890159</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.3620629507605393</v>
       </c>
       <c r="F4" t="n">
-        <v>9.453131052025842</v>
+        <v>9.453836516842234</v>
       </c>
       <c r="G4" t="n">
-        <v>9.04831192310605</v>
+        <v>9.04686188464237</v>
       </c>
       <c r="H4" t="n">
-        <v>9.867750436281703</v>
+        <v>9.868562339124122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2645480187310236</v>
+        <v>0.2645391514771992</v>
       </c>
       <c r="J4" t="n">
-        <v>0.262591462974991</v>
+        <v>0.2625710750050154</v>
       </c>
       <c r="K4" t="n">
-        <v>0.266668925509136</v>
+        <v>0.2667005804627822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2801663728751925</v>
+        <v>0.2801637844081025</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2790110621152756</v>
+        <v>0.278978416205366</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2813667860849299</v>
+        <v>0.2813902824993617</v>
       </c>
     </row>
   </sheetData>
